--- a/artfynd/A 58937-2022.xlsx
+++ b/artfynd/A 58937-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY98"/>
+  <dimension ref="A1:AY100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105119629</v>
+        <v>106056722</v>
       </c>
       <c r="B3" t="n">
-        <v>89412</v>
+        <v>96334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,38 +816,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -855,10 +856,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>568311.9367440912</v>
+        <v>568177.5447708063</v>
       </c>
       <c r="R3" t="n">
-        <v>6423135.627068571</v>
+        <v>6423312.246072624</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -885,7 +886,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -895,7 +896,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -928,10 +929,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105119644</v>
+        <v>106056757</v>
       </c>
       <c r="B4" t="n">
-        <v>89412</v>
+        <v>96334</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,38 +941,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -979,10 +981,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>568303.4620774299</v>
+        <v>568195.7083188121</v>
       </c>
       <c r="R4" t="n">
-        <v>6423164.682099877</v>
+        <v>6423401.211857296</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1009,7 +1011,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1019,7 +1021,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1052,7 +1054,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105422619</v>
+        <v>106598064</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1085,7 +1087,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1100,10 +1106,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>568298.5848157029</v>
+        <v>568315.4057800124</v>
       </c>
       <c r="R5" t="n">
-        <v>6423076.468200646</v>
+        <v>6423243.989577772</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1130,7 +1136,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1140,7 +1146,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1173,7 +1179,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>105422571</v>
+        <v>106598067</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1208,7 +1214,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1225,10 +1231,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>568244.0888963499</v>
+        <v>568309.6109589802</v>
       </c>
       <c r="R6" t="n">
-        <v>6423121.727608494</v>
+        <v>6423240.70529611</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1255,7 +1261,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1265,7 +1271,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1298,10 +1304,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>105422152</v>
+        <v>106871767</v>
       </c>
       <c r="B7" t="n">
-        <v>96334</v>
+        <v>94160</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1310,53 +1316,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>2590</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>568226.303352673</v>
+        <v>568103.5357559794</v>
       </c>
       <c r="R7" t="n">
-        <v>6423166.551161993</v>
+        <v>6423504.221848943</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1380,7 +1375,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1390,7 +1385,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1404,29 +1399,28 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>105421933</v>
+        <v>106871841</v>
       </c>
       <c r="B8" t="n">
-        <v>96334</v>
+        <v>4711</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1435,53 +1429,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>100299</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Kraatz, 1881)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>568217.9650988982</v>
+        <v>568102.4091033634</v>
       </c>
       <c r="R8" t="n">
-        <v>6423187.644983268</v>
+        <v>6423507.918660086</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1505,7 +1488,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1515,7 +1498,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1523,32 +1506,36 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Gnaggångar och kläckhål</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>105422645</v>
+        <v>106872029</v>
       </c>
       <c r="B9" t="n">
         <v>96334</v>
@@ -1581,28 +1568,25 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>568286.5896833247</v>
+        <v>568108.4682921505</v>
       </c>
       <c r="R9" t="n">
-        <v>6423062.459714658</v>
+        <v>6423433.17050597</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1626,7 +1610,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1636,7 +1620,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1650,29 +1634,28 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>105425731</v>
+        <v>106871829</v>
       </c>
       <c r="B10" t="n">
-        <v>56540</v>
+        <v>5113</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1681,53 +1664,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103021</v>
+        <v>100526</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>568246.6276946943</v>
+        <v>568102.4091033634</v>
       </c>
       <c r="R10" t="n">
-        <v>6423159.996035498</v>
+        <v>6423507.918660086</v>
       </c>
       <c r="S10" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1751,7 +1723,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1761,12 +1733,17 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Gnaggångar och kläckhål</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1781,22 +1758,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>105422589</v>
+        <v>106871077</v>
       </c>
       <c r="B11" t="n">
-        <v>96334</v>
+        <v>94160</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1805,53 +1782,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>2590</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>568235.8522544515</v>
+        <v>568172.601865784</v>
       </c>
       <c r="R11" t="n">
-        <v>6423105.659900109</v>
+        <v>6423383.830219489</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1875,7 +1841,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1885,7 +1851,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1899,29 +1865,28 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>105422543</v>
+        <v>106871378</v>
       </c>
       <c r="B12" t="n">
-        <v>96334</v>
+        <v>93276</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1930,53 +1895,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>2170</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Hedw.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>568226.4390960312</v>
+        <v>568135.9399262374</v>
       </c>
       <c r="R12" t="n">
-        <v>6423158.589952862</v>
+        <v>6423381.613107949</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2000,7 +1954,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2010,7 +1964,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2024,29 +1978,28 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>105421871</v>
+        <v>106871104</v>
       </c>
       <c r="B13" t="n">
-        <v>96334</v>
+        <v>89356</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2055,53 +2008,42 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>568164.7249615346</v>
+        <v>568172.601865784</v>
       </c>
       <c r="R13" t="n">
-        <v>6423221.776784076</v>
+        <v>6423383.830219489</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2125,7 +2067,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2135,7 +2077,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2149,26 +2091,25 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>105422649</v>
+        <v>106870699</v>
       </c>
       <c r="B14" t="n">
         <v>96334</v>
@@ -2201,28 +2142,25 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>568329.0615833276</v>
+        <v>568214.7257949666</v>
       </c>
       <c r="R14" t="n">
-        <v>6423036.107955901</v>
+        <v>6423377.6468242</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2246,7 +2184,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2256,7 +2194,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2270,29 +2208,28 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>105422557</v>
+        <v>106871368</v>
       </c>
       <c r="B15" t="n">
-        <v>96334</v>
+        <v>94160</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2301,45 +2238,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>2590</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>568238.6988842692</v>
+        <v>568142.0781416936</v>
       </c>
       <c r="R15" t="n">
-        <v>6423125.882940792</v>
+        <v>6423364.729696591</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2363,7 +2297,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2373,7 +2307,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2387,29 +2321,28 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>105421922</v>
+        <v>106871424</v>
       </c>
       <c r="B16" t="n">
-        <v>96334</v>
+        <v>94160</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2418,53 +2351,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>2590</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>568232.0870795322</v>
+        <v>568181.4874522267</v>
       </c>
       <c r="R16" t="n">
-        <v>6423201.689099953</v>
+        <v>6423393.006441575</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2488,22 +2410,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2512,26 +2434,25 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>105421910</v>
+        <v>106877445</v>
       </c>
       <c r="B17" t="n">
         <v>96334</v>
@@ -2566,7 +2487,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2583,10 +2504,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>568192.0520887745</v>
+        <v>568213.0491843376</v>
       </c>
       <c r="R17" t="n">
-        <v>6423210.031840586</v>
+        <v>6423382.396095154</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2613,7 +2534,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2623,7 +2544,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2649,17 +2570,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>105425734</v>
+        <v>106872801</v>
       </c>
       <c r="B18" t="n">
-        <v>56411</v>
+        <v>96334</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2668,53 +2589,46 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>568246.6276946943</v>
+        <v>568151.266313712</v>
       </c>
       <c r="R18" t="n">
-        <v>6423159.996035498</v>
+        <v>6423449.82520284</v>
       </c>
       <c r="S18" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2738,7 +2652,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2748,7 +2662,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2768,22 +2682,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>105421944</v>
+        <v>106871837</v>
       </c>
       <c r="B19" t="n">
-        <v>96334</v>
+        <v>5135</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2792,53 +2706,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>568217.1437991657</v>
+        <v>568102.4091033634</v>
       </c>
       <c r="R19" t="n">
-        <v>6423204.619688316</v>
+        <v>6423507.918660086</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2862,7 +2765,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2872,7 +2775,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2880,35 +2783,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Gnaggångar och kläckhål</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>105422598</v>
+        <v>106877790</v>
       </c>
       <c r="B20" t="n">
-        <v>96334</v>
+        <v>5113</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2917,35 +2824,36 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2953,10 +2861,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>568273.1752335984</v>
+        <v>568225.9238225697</v>
       </c>
       <c r="R20" t="n">
-        <v>6423100.456522962</v>
+        <v>6423438.356837193</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2983,7 +2891,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2993,7 +2901,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -3007,7 +2915,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3026,10 +2933,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>105422548</v>
+        <v>106886127</v>
       </c>
       <c r="B21" t="n">
-        <v>96334</v>
+        <v>93276</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3038,53 +2945,45 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>2170</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Hedw.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Holmhult O, Sm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>568246.7929588399</v>
+        <v>568122.7461809935</v>
       </c>
       <c r="R21" t="n">
-        <v>6423119.119190352</v>
+        <v>6423375.548852002</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3108,7 +3007,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3118,12 +3017,17 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>skogskärr</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3139,19 +3043,19 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Stefan Kasselstrand</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Stefan Kasselstrand</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>105421960</v>
+        <v>106872049</v>
       </c>
       <c r="B22" t="n">
         <v>96334</v>
@@ -3184,32 +3088,21 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>568230.3039840964</v>
+        <v>568181.4874522267</v>
       </c>
       <c r="R22" t="n">
-        <v>6423181.484579422</v>
+        <v>6423393.006441575</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3233,22 +3126,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3257,29 +3150,28 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>105422634</v>
+        <v>106886111</v>
       </c>
       <c r="B23" t="n">
-        <v>96334</v>
+        <v>94160</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3288,46 +3180,42 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>2590</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Holmhult O, Sm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>568275.2323759119</v>
+        <v>568176.1268112538</v>
       </c>
       <c r="R23" t="n">
-        <v>6423073.415119138</v>
+        <v>6423364.247966006</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3354,7 +3242,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3364,12 +3252,17 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>kärrkant</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3385,19 +3278,19 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Stefan Kasselstrand</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Stefan Kasselstrand</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>105422430</v>
+        <v>106890138</v>
       </c>
       <c r="B24" t="n">
         <v>96334</v>
@@ -3432,30 +3325,26 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>568215.3355698985</v>
+        <v>568210.768471033</v>
       </c>
       <c r="R24" t="n">
-        <v>6423154.684330427</v>
+        <v>6423391.382034641</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3479,7 +3368,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3489,7 +3378,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3510,22 +3399,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>105421900</v>
+        <v>106890059</v>
       </c>
       <c r="B25" t="n">
-        <v>96334</v>
+        <v>93276</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3534,53 +3423,45 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>2170</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Hedw.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>568194.6203772638</v>
+        <v>568126.9186633714</v>
       </c>
       <c r="R25" t="n">
-        <v>6423215.384558749</v>
+        <v>6423380.397747971</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3604,7 +3485,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3614,12 +3495,17 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>På en låga i sankmark</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3635,19 +3521,19 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson, Amanda Tas, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>105421887</v>
+        <v>106890126</v>
       </c>
       <c r="B26" t="n">
         <v>96334</v>
@@ -3682,30 +3568,26 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>568180.5869329767</v>
+        <v>568114.1093951658</v>
       </c>
       <c r="R26" t="n">
-        <v>6423227.355964031</v>
+        <v>6423445.476418414</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3729,7 +3611,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3739,7 +3621,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3760,22 +3642,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>106056722</v>
+        <v>106963341</v>
       </c>
       <c r="B27" t="n">
-        <v>96334</v>
+        <v>89789</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3784,39 +3666,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>5420</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3824,10 +3705,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>568177.5447708063</v>
+        <v>567984.837964247</v>
       </c>
       <c r="R27" t="n">
-        <v>6423312.246072624</v>
+        <v>6423540.955403989</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3854,7 +3735,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-01-18</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3864,12 +3745,17 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-01-18</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Mkt gammal</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3897,10 +3783,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>106056757</v>
+        <v>106963360</v>
       </c>
       <c r="B28" t="n">
-        <v>96334</v>
+        <v>89780</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3909,39 +3795,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>4217</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Pers.:Fr.) Bondartsev</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3949,10 +3826,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>568195.7083188121</v>
+        <v>568000.0409120271</v>
       </c>
       <c r="R28" t="n">
-        <v>6423401.211857296</v>
+        <v>6423553.954156703</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3979,7 +3856,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-01-18</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3989,12 +3866,17 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-01-18</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>På gammal liggande torr tall</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4022,7 +3904,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>106598064</v>
+        <v>106963355</v>
       </c>
       <c r="B29" t="n">
         <v>96334</v>
@@ -4057,7 +3939,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -4074,10 +3956,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>568315.4057800124</v>
+        <v>567984.4599040921</v>
       </c>
       <c r="R29" t="n">
-        <v>6423243.989577772</v>
+        <v>6423500.604154822</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4104,7 +3986,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4114,7 +3996,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4147,7 +4029,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>106598067</v>
+        <v>106963379</v>
       </c>
       <c r="B30" t="n">
         <v>96334</v>
@@ -4180,11 +4062,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -4199,10 +4077,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>568309.6109589802</v>
+        <v>567987.0369266951</v>
       </c>
       <c r="R30" t="n">
-        <v>6423240.70529611</v>
+        <v>6423536.745965729</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4229,7 +4107,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4239,7 +4117,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4272,10 +4150,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>106871767</v>
+        <v>106963363</v>
       </c>
       <c r="B31" t="n">
-        <v>94160</v>
+        <v>89412</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4284,42 +4162,52 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2590</v>
+        <v>5442</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>568103.5357559794</v>
+        <v>568000.0409120271</v>
       </c>
       <c r="R31" t="n">
-        <v>6423504.221848943</v>
+        <v>6423553.954156703</v>
       </c>
       <c r="S31" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4343,7 +4231,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4353,7 +4241,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4367,28 +4255,29 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>106871841</v>
+        <v>106963370</v>
       </c>
       <c r="B32" t="n">
-        <v>4711</v>
+        <v>96334</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4397,42 +4286,49 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100299</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>568102.4091033634</v>
+        <v>567982.3327402722</v>
       </c>
       <c r="R32" t="n">
-        <v>6423507.918660086</v>
+        <v>6423531.888369759</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4456,7 +4352,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4466,7 +4362,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4474,39 +4370,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Gnaggångar och kläckhål</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>106868208</v>
+        <v>106970266</v>
       </c>
       <c r="B33" t="n">
-        <v>96334</v>
+        <v>76862</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4515,42 +4407,44 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>6443</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Sotlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Acolium inquinans</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Sm.) A.Massal.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>568238.5450146624</v>
+        <v>568115.1972202838</v>
       </c>
       <c r="R33" t="n">
-        <v>6423134.905716937</v>
+        <v>6423506.543789248</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4574,7 +4468,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4584,7 +4478,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4592,31 +4486,37 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>På grov stubbe av tall.</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>106867524</v>
+        <v>106963346</v>
       </c>
       <c r="B34" t="n">
         <v>96334</v>
@@ -4649,21 +4549,32 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>568240.8552770936</v>
+        <v>567961.1005771976</v>
       </c>
       <c r="R34" t="n">
-        <v>6423217.765489589</v>
+        <v>6423529.404247304</v>
       </c>
       <c r="S34" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4687,7 +4598,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4697,7 +4608,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4711,25 +4622,26 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>106877292</v>
+        <v>106963389</v>
       </c>
       <c r="B35" t="n">
         <v>96334</v>
@@ -4781,10 +4693,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>568199.1005086692</v>
+        <v>568115.1972202838</v>
       </c>
       <c r="R35" t="n">
-        <v>6423202.18853304</v>
+        <v>6423506.543789248</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4811,7 +4723,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4821,7 +4733,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4854,7 +4766,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>106877256</v>
+        <v>106963384</v>
       </c>
       <c r="B36" t="n">
         <v>96334</v>
@@ -4887,7 +4799,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -4902,10 +4818,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>568208.7896145446</v>
+        <v>568115.1520447005</v>
       </c>
       <c r="R36" t="n">
-        <v>6423195.452029183</v>
+        <v>6423509.19729699</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4932,7 +4848,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4942,7 +4858,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4975,10 +4891,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>106867091</v>
+        <v>105119629</v>
       </c>
       <c r="B37" t="n">
-        <v>96334</v>
+        <v>89412</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4987,42 +4903,52 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>568212.9079008818</v>
+        <v>568311.9367440912</v>
       </c>
       <c r="R37" t="n">
-        <v>6423203.485682623</v>
+        <v>6423135.627068571</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5046,7 +4972,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-14</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -5056,7 +4982,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-14</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -5070,28 +4996,29 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>106866966</v>
+        <v>105119644</v>
       </c>
       <c r="B38" t="n">
-        <v>96334</v>
+        <v>89412</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5100,46 +5027,52 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>568179.5143972139</v>
+        <v>568303.4620774299</v>
       </c>
       <c r="R38" t="n">
-        <v>6423227.868581393</v>
+        <v>6423164.682099877</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5163,7 +5096,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-14</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -5173,7 +5106,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-14</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -5187,28 +5120,29 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>106870133</v>
+        <v>105422619</v>
       </c>
       <c r="B39" t="n">
-        <v>56540</v>
+        <v>96334</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5217,42 +5151,49 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>568288.8212444638</v>
+        <v>568298.5848157029</v>
       </c>
       <c r="R39" t="n">
-        <v>6423212.213075593</v>
+        <v>6423076.468200646</v>
       </c>
       <c r="S39" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5276,22 +5217,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5300,25 +5241,26 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>106867883</v>
+        <v>105422571</v>
       </c>
       <c r="B40" t="n">
         <v>96334</v>
@@ -5353,7 +5295,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5362,19 +5304,21 @@
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>568234.4335275906</v>
+        <v>568244.0888963499</v>
       </c>
       <c r="R40" t="n">
-        <v>6423157.664466224</v>
+        <v>6423121.727608494</v>
       </c>
       <c r="S40" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5398,22 +5342,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5422,25 +5366,26 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>106872029</v>
+        <v>105422152</v>
       </c>
       <c r="B41" t="n">
         <v>96334</v>
@@ -5475,23 +5420,30 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>568108.4682921505</v>
+        <v>568226.303352673</v>
       </c>
       <c r="R41" t="n">
-        <v>6423433.17050597</v>
+        <v>6423166.551161993</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5515,7 +5467,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5525,7 +5477,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5539,28 +5491,29 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>106871829</v>
+        <v>105421933</v>
       </c>
       <c r="B42" t="n">
-        <v>5113</v>
+        <v>96334</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5569,42 +5522,53 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>568102.4091033634</v>
+        <v>568217.9650988982</v>
       </c>
       <c r="R42" t="n">
-        <v>6423507.918660086</v>
+        <v>6423187.644983268</v>
       </c>
       <c r="S42" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5628,7 +5592,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5638,7 +5602,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5646,39 +5610,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Gnaggångar och kläckhål</t>
-        </is>
-      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>106871077</v>
+        <v>105422645</v>
       </c>
       <c r="B43" t="n">
-        <v>94160</v>
+        <v>96334</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5687,42 +5647,49 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2590</v>
+        <v>220787</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>568172.601865784</v>
+        <v>568286.5896833247</v>
       </c>
       <c r="R43" t="n">
-        <v>6423383.830219489</v>
+        <v>6423062.459714658</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5746,7 +5713,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5756,7 +5723,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -5770,28 +5737,29 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>106867947</v>
+        <v>105425731</v>
       </c>
       <c r="B44" t="n">
-        <v>96334</v>
+        <v>56540</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5800,46 +5768,53 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>568216.2995511775</v>
+        <v>568246.6276946943</v>
       </c>
       <c r="R44" t="n">
-        <v>6423160.540688219</v>
+        <v>6423159.996035498</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5863,7 +5838,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5873,7 +5848,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5893,19 +5868,19 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>106868153</v>
+        <v>105422589</v>
       </c>
       <c r="B45" t="n">
         <v>96334</v>
@@ -5940,23 +5915,30 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>568232.4875125707</v>
+        <v>568235.8522544515</v>
       </c>
       <c r="R45" t="n">
-        <v>6423147.013222875</v>
+        <v>6423105.659900109</v>
       </c>
       <c r="S45" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5980,7 +5962,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5990,7 +5972,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -6004,25 +5986,26 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>106867789</v>
+        <v>105422543</v>
       </c>
       <c r="B46" t="n">
         <v>96334</v>
@@ -6057,23 +6040,30 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>568240.4163294947</v>
+        <v>568226.4390960312</v>
       </c>
       <c r="R46" t="n">
-        <v>6423181.126125624</v>
+        <v>6423158.589952862</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6097,7 +6087,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -6107,7 +6097,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -6121,28 +6111,29 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>106870130</v>
+        <v>105421871</v>
       </c>
       <c r="B47" t="n">
-        <v>56540</v>
+        <v>96334</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6151,47 +6142,53 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>568279.7905801303</v>
+        <v>568164.7249615346</v>
       </c>
       <c r="R47" t="n">
-        <v>6423211.528068624</v>
+        <v>6423221.776784076</v>
       </c>
       <c r="S47" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6215,7 +6212,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -6225,7 +6222,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -6239,28 +6236,29 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>106871378</v>
+        <v>105422649</v>
       </c>
       <c r="B48" t="n">
-        <v>93276</v>
+        <v>96334</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6269,42 +6267,49 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2170</v>
+        <v>220787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>568135.9399262374</v>
+        <v>568329.0615833276</v>
       </c>
       <c r="R48" t="n">
-        <v>6423381.613107949</v>
+        <v>6423036.107955901</v>
       </c>
       <c r="S48" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6328,7 +6333,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -6338,7 +6343,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -6352,28 +6357,29 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>106871104</v>
+        <v>105422557</v>
       </c>
       <c r="B49" t="n">
-        <v>89356</v>
+        <v>96334</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6382,42 +6388,45 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>568172.601865784</v>
+        <v>568238.6988842692</v>
       </c>
       <c r="R49" t="n">
-        <v>6423383.830219489</v>
+        <v>6423125.882940792</v>
       </c>
       <c r="S49" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6441,7 +6450,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -6451,7 +6460,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -6465,25 +6474,26 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>106867243</v>
+        <v>105421922</v>
       </c>
       <c r="B50" t="n">
         <v>96334</v>
@@ -6516,21 +6526,32 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>568217.7479359548</v>
+        <v>568232.0870795322</v>
       </c>
       <c r="R50" t="n">
-        <v>6423200.382817974</v>
+        <v>6423201.689099953</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6554,7 +6575,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6564,7 +6585,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6578,25 +6599,26 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>106867673</v>
+        <v>105421910</v>
       </c>
       <c r="B51" t="n">
         <v>96334</v>
@@ -6631,23 +6653,30 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>568213.0798093656</v>
+        <v>568192.0520887745</v>
       </c>
       <c r="R51" t="n">
-        <v>6423193.401574683</v>
+        <v>6423210.031840586</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6671,7 +6700,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6681,7 +6710,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6695,28 +6724,29 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>106867829</v>
+        <v>105425734</v>
       </c>
       <c r="B52" t="n">
-        <v>89412</v>
+        <v>56411</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6729,42 +6759,49 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5442</v>
+        <v>100049</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>568236.5605495451</v>
+        <v>568246.6276946943</v>
       </c>
       <c r="R52" t="n">
-        <v>6423157.700738003</v>
+        <v>6423159.996035498</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6788,7 +6825,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6798,7 +6835,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -6818,22 +6855,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>106868157</v>
+        <v>105421944</v>
       </c>
       <c r="B53" t="n">
-        <v>56540</v>
+        <v>96334</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6842,51 +6879,53 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>568220.5716894561</v>
+        <v>568217.1437991657</v>
       </c>
       <c r="R53" t="n">
-        <v>6423159.551718453</v>
+        <v>6423204.619688316</v>
       </c>
       <c r="S53" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6910,22 +6949,22 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6934,25 +6973,26 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>106870699</v>
+        <v>105422598</v>
       </c>
       <c r="B54" t="n">
         <v>96334</v>
@@ -6985,25 +7025,28 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>568214.7257949666</v>
+        <v>568273.1752335984</v>
       </c>
       <c r="R54" t="n">
-        <v>6423377.6468242</v>
+        <v>6423100.456522962</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -7027,7 +7070,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -7037,7 +7080,7 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
@@ -7051,28 +7094,29 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>106871368</v>
+        <v>105422548</v>
       </c>
       <c r="B55" t="n">
-        <v>94160</v>
+        <v>96334</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7081,42 +7125,53 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2590</v>
+        <v>220787</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>568142.0781416936</v>
+        <v>568246.7929588399</v>
       </c>
       <c r="R55" t="n">
-        <v>6423364.729696591</v>
+        <v>6423119.119190352</v>
       </c>
       <c r="S55" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7140,7 +7195,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -7150,7 +7205,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -7164,28 +7219,29 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>106871424</v>
+        <v>105421960</v>
       </c>
       <c r="B56" t="n">
-        <v>94160</v>
+        <v>96334</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7194,42 +7250,53 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2590</v>
+        <v>220787</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>568181.4874522267</v>
+        <v>568230.3039840964</v>
       </c>
       <c r="R56" t="n">
-        <v>6423393.006441575</v>
+        <v>6423181.484579422</v>
       </c>
       <c r="S56" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7253,22 +7320,22 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7277,25 +7344,26 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>106867602</v>
+        <v>105422634</v>
       </c>
       <c r="B57" t="n">
         <v>96334</v>
@@ -7328,25 +7396,28 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>10</t>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>568232.286187418</v>
+        <v>568275.2323759119</v>
       </c>
       <c r="R57" t="n">
-        <v>6423190.012756537</v>
+        <v>6423073.415119138</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7370,7 +7441,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -7380,7 +7451,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -7394,25 +7465,26 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>106877270</v>
+        <v>105422430</v>
       </c>
       <c r="B58" t="n">
         <v>96334</v>
@@ -7447,7 +7519,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -7464,10 +7536,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>568193.1155857585</v>
+        <v>568215.3355698985</v>
       </c>
       <c r="R58" t="n">
-        <v>6423210.049965162</v>
+        <v>6423154.684330427</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7494,7 +7566,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7504,7 +7576,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7537,7 +7609,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>106877445</v>
+        <v>105421900</v>
       </c>
       <c r="B59" t="n">
         <v>96334</v>
@@ -7572,7 +7644,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -7589,10 +7661,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>568213.0491843376</v>
+        <v>568194.6203772638</v>
       </c>
       <c r="R59" t="n">
-        <v>6423382.396095154</v>
+        <v>6423215.384558749</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7619,7 +7691,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -7629,7 +7701,7 @@
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -7655,14 +7727,14 @@
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Ingvor Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>106872801</v>
+        <v>105421887</v>
       </c>
       <c r="B60" t="n">
         <v>96334</v>
@@ -7697,23 +7769,30 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>568151.266313712</v>
+        <v>568180.5869329767</v>
       </c>
       <c r="R60" t="n">
-        <v>6423449.82520284</v>
+        <v>6423227.355964031</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7737,7 +7816,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7747,7 +7826,7 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
@@ -7761,28 +7840,29 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>106871837</v>
+        <v>106868208</v>
       </c>
       <c r="B61" t="n">
-        <v>5135</v>
+        <v>96334</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7791,25 +7871,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7820,13 +7900,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>568102.4091033634</v>
+        <v>568238.5450146624</v>
       </c>
       <c r="R61" t="n">
-        <v>6423507.918660086</v>
+        <v>6423134.905716937</v>
       </c>
       <c r="S61" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7866,11 +7946,6 @@
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>Gnaggångar och kläckhål</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7885,19 +7960,19 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>106866807</v>
+        <v>106867524</v>
       </c>
       <c r="B62" t="n">
         <v>96334</v>
@@ -7930,11 +8005,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7942,13 +8013,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>568175.1627357623</v>
+        <v>568240.8552770936</v>
       </c>
       <c r="R62" t="n">
-        <v>6423202.311504968</v>
+        <v>6423217.765489589</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -8002,22 +8073,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>106877790</v>
+        <v>106877292</v>
       </c>
       <c r="B63" t="n">
-        <v>5113</v>
+        <v>96334</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8026,36 +8097,39 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -8063,10 +8137,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>568225.9238225697</v>
+        <v>568199.1005086692</v>
       </c>
       <c r="R63" t="n">
-        <v>6423438.356837193</v>
+        <v>6423202.18853304</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8117,6 +8191,7 @@
       <c r="AE63" t="b">
         <v>0</v>
       </c>
+      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -8135,10 +8210,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>106886127</v>
+        <v>106877256</v>
       </c>
       <c r="B64" t="n">
-        <v>93276</v>
+        <v>96334</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8147,45 +8222,49 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2170</v>
+        <v>220787</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Holmhult O, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>568122.7461809935</v>
+        <v>568208.7896145446</v>
       </c>
       <c r="R64" t="n">
-        <v>6423375.548852002</v>
+        <v>6423195.452029183</v>
       </c>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8225,11 +8304,6 @@
       <c r="AB64" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>skogskärr</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8245,19 +8319,19 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Stefan Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Stefan Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>106866903</v>
+        <v>106867091</v>
       </c>
       <c r="B65" t="n">
         <v>96334</v>
@@ -8290,11 +8364,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8302,13 +8372,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>568178.4599482497</v>
+        <v>568212.9079008818</v>
       </c>
       <c r="R65" t="n">
-        <v>6423227.319721757</v>
+        <v>6423203.485682623</v>
       </c>
       <c r="S65" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8374,7 +8444,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>106872049</v>
+        <v>106866966</v>
       </c>
       <c r="B66" t="n">
         <v>96334</v>
@@ -8407,7 +8477,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -8415,10 +8489,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>568181.4874522267</v>
+        <v>568179.5143972139</v>
       </c>
       <c r="R66" t="n">
-        <v>6423393.006441575</v>
+        <v>6423227.868581393</v>
       </c>
       <c r="S66" t="n">
         <v>2</v>
@@ -8450,7 +8524,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8460,7 +8534,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8475,22 +8549,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>106886111</v>
+        <v>106870133</v>
       </c>
       <c r="B67" t="n">
-        <v>94160</v>
+        <v>56540</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8499,45 +8573,42 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2590</v>
+        <v>103021</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Holmhult O, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>568176.1268112538</v>
+        <v>568288.8212444638</v>
       </c>
       <c r="R67" t="n">
-        <v>6423364.247966006</v>
+        <v>6423212.213075593</v>
       </c>
       <c r="S67" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8566,7 +8637,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8576,12 +8647,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>kärrkant</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8590,29 +8656,28 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
-      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Stefan Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Stefan Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>106890198</v>
+        <v>106867883</v>
       </c>
       <c r="B68" t="n">
-        <v>103265</v>
+        <v>96334</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8621,49 +8686,51 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr"/>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>568210.6090004898</v>
+        <v>568234.4335275906</v>
       </c>
       <c r="R68" t="n">
-        <v>6423213.533505927</v>
+        <v>6423157.664466224</v>
       </c>
       <c r="S68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -8692,7 +8759,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8702,7 +8769,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8711,26 +8778,25 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>106889573</v>
+        <v>106867947</v>
       </c>
       <c r="B69" t="n">
         <v>96334</v>
@@ -8765,26 +8831,23 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>568293.3731735148</v>
+        <v>568216.2995511775</v>
       </c>
       <c r="R69" t="n">
-        <v>6423101.332099708</v>
+        <v>6423160.540688219</v>
       </c>
       <c r="S69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -8832,26 +8895,25 @@
       <c r="AE69" t="b">
         <v>0</v>
       </c>
-      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>106888300</v>
+        <v>106868153</v>
       </c>
       <c r="B70" t="n">
         <v>96334</v>
@@ -8889,23 +8951,20 @@
           <t>7</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>568230.9330781992</v>
+        <v>568232.4875125707</v>
       </c>
       <c r="R70" t="n">
-        <v>6423206.978382651</v>
+        <v>6423147.013222875</v>
       </c>
       <c r="S70" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8953,26 +9012,25 @@
       <c r="AE70" t="b">
         <v>0</v>
       </c>
-      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>106890182</v>
+        <v>106867789</v>
       </c>
       <c r="B71" t="n">
         <v>96334</v>
@@ -9007,26 +9065,23 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
+          <t>85</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>568208.9504252685</v>
+        <v>568240.4163294947</v>
       </c>
       <c r="R71" t="n">
-        <v>6423217.221494167</v>
+        <v>6423181.126125624</v>
       </c>
       <c r="S71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -9074,29 +9129,28 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
-      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
       </c>
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>106890138</v>
+        <v>106870130</v>
       </c>
       <c r="B72" t="n">
-        <v>96334</v>
+        <v>56540</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9105,49 +9159,47 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>568210.768471033</v>
+        <v>568279.7905801303</v>
       </c>
       <c r="R72" t="n">
-        <v>6423391.382034641</v>
+        <v>6423211.528068624</v>
       </c>
       <c r="S72" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -9195,29 +9247,28 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
-      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
       </c>
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>106890059</v>
+        <v>106867243</v>
       </c>
       <c r="B73" t="n">
-        <v>93276</v>
+        <v>96334</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9226,45 +9277,42 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2170</v>
+        <v>220787</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>568126.9186633714</v>
+        <v>568217.7479359548</v>
       </c>
       <c r="R73" t="n">
-        <v>6423380.397747971</v>
+        <v>6423200.382817974</v>
       </c>
       <c r="S73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -9306,37 +9354,31 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>På en låga i sankmark</t>
-        </is>
-      </c>
       <c r="AD73" t="b">
         <v>0</v>
       </c>
       <c r="AE73" t="b">
         <v>0</v>
       </c>
-      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Amanda Tas, Erland Lindblad</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>106888385</v>
+        <v>106867673</v>
       </c>
       <c r="B74" t="n">
         <v>96334</v>
@@ -9371,26 +9413,23 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr"/>
+          <t>33</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>568239.6085316972</v>
+        <v>568213.0798093656</v>
       </c>
       <c r="R74" t="n">
-        <v>6423134.923853738</v>
+        <v>6423193.401574683</v>
       </c>
       <c r="S74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -9438,29 +9477,28 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
-      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>106890220</v>
+        <v>106867829</v>
       </c>
       <c r="B75" t="n">
-        <v>103265</v>
+        <v>89412</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9469,49 +9507,46 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>568216.9356868257</v>
+        <v>568236.5605495451</v>
       </c>
       <c r="R75" t="n">
-        <v>6423216.826729111</v>
+        <v>6423157.700738003</v>
       </c>
       <c r="S75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9559,29 +9594,28 @@
       <c r="AE75" t="b">
         <v>0</v>
       </c>
-      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>106890126</v>
+        <v>106868157</v>
       </c>
       <c r="B76" t="n">
-        <v>96334</v>
+        <v>56540</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9590,49 +9624,51 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>568114.1093951658</v>
+        <v>568220.5716894561</v>
       </c>
       <c r="R76" t="n">
-        <v>6423445.476418414</v>
+        <v>6423159.551718453</v>
       </c>
       <c r="S76" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9661,7 +9697,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9671,7 +9707,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9680,26 +9716,25 @@
       <c r="AE76" t="b">
         <v>0</v>
       </c>
-      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="b">
         <v>0</v>
       </c>
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>106890256</v>
+        <v>106867602</v>
       </c>
       <c r="B77" t="n">
         <v>96334</v>
@@ -9737,23 +9772,20 @@
           <t>10</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>568225.9482474657</v>
+        <v>568232.286187418</v>
       </c>
       <c r="R77" t="n">
-        <v>6423218.573073286</v>
+        <v>6423190.012756537</v>
       </c>
       <c r="S77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9801,26 +9833,25 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
-      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>106889862</v>
+        <v>106877270</v>
       </c>
       <c r="B78" t="n">
         <v>96334</v>
@@ -9855,26 +9886,30 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>568384.2173274315</v>
+        <v>568193.1155857585</v>
       </c>
       <c r="R78" t="n">
-        <v>6423076.868876688</v>
+        <v>6423210.049965162</v>
       </c>
       <c r="S78" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9929,19 +9964,19 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>106890237</v>
+        <v>106866807</v>
       </c>
       <c r="B79" t="n">
         <v>96334</v>
@@ -9979,23 +10014,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>A 58937  Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>568216.9356868257</v>
+        <v>568175.1627357623</v>
       </c>
       <c r="R79" t="n">
-        <v>6423216.826729111</v>
+        <v>6423202.311504968</v>
       </c>
       <c r="S79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -10043,26 +10075,25 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
-      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>106888103</v>
+        <v>106866903</v>
       </c>
       <c r="B80" t="n">
         <v>96334</v>
@@ -10100,23 +10131,20 @@
           <t>7</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>568231.8427203337</v>
+        <v>568178.4599482497</v>
       </c>
       <c r="R80" t="n">
-        <v>6423216.019111387</v>
+        <v>6423227.319721757</v>
       </c>
       <c r="S80" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -10164,29 +10192,28 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
-      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>106888334</v>
+        <v>106890198</v>
       </c>
       <c r="B81" t="n">
-        <v>96334</v>
+        <v>103265</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10195,30 +10222,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -10231,10 +10258,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>568243.7268221001</v>
+        <v>568210.6090004898</v>
       </c>
       <c r="R81" t="n">
-        <v>6423142.957659895</v>
+        <v>6423213.533505927</v>
       </c>
       <c r="S81" t="n">
         <v>5</v>
@@ -10304,7 +10331,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>106889879</v>
+        <v>106889573</v>
       </c>
       <c r="B82" t="n">
         <v>96334</v>
@@ -10339,7 +10366,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -10352,10 +10379,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>568390.7527353063</v>
+        <v>568293.3731735148</v>
       </c>
       <c r="R82" t="n">
-        <v>6423067.955024878</v>
+        <v>6423101.332099708</v>
       </c>
       <c r="S82" t="n">
         <v>5</v>
@@ -10425,7 +10452,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>106888069</v>
+        <v>106888300</v>
       </c>
       <c r="B83" t="n">
         <v>96334</v>
@@ -10460,7 +10487,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -10473,10 +10500,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>568225.9844456767</v>
+        <v>568230.9330781992</v>
       </c>
       <c r="R83" t="n">
-        <v>6423216.450113229</v>
+        <v>6423206.978382651</v>
       </c>
       <c r="S83" t="n">
         <v>5</v>
@@ -10539,14 +10566,14 @@
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand, Stefan Kasselstrand, Erland Lindblad</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>106888094</v>
+        <v>106890182</v>
       </c>
       <c r="B84" t="n">
         <v>96334</v>
@@ -10581,7 +10608,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -10594,10 +10621,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>568227.6430370624</v>
+        <v>568208.9504252685</v>
       </c>
       <c r="R84" t="n">
-        <v>6423212.762130958</v>
+        <v>6423217.221494167</v>
       </c>
       <c r="S84" t="n">
         <v>5</v>
@@ -10667,7 +10694,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>106889526</v>
+        <v>106888385</v>
       </c>
       <c r="B85" t="n">
         <v>96334</v>
@@ -10702,7 +10729,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -10715,10 +10742,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>568304.4112933173</v>
+        <v>568239.6085316972</v>
       </c>
       <c r="R85" t="n">
-        <v>6423233.714933631</v>
+        <v>6423134.923853738</v>
       </c>
       <c r="S85" t="n">
         <v>5</v>
@@ -10788,10 +10815,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>106963295</v>
+        <v>106890220</v>
       </c>
       <c r="B86" t="n">
-        <v>88471</v>
+        <v>103265</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10800,25 +10827,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>59</v>
+        <v>221144</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Fransporing</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Anomoloma myceliosum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Peck) Niemelä &amp; K.H.Larsson</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -10826,26 +10853,23 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>568309.9574934442</v>
+        <v>568216.9356868257</v>
       </c>
       <c r="R86" t="n">
-        <v>6423095.775163164</v>
+        <v>6423216.826729111</v>
       </c>
       <c r="S86" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -10869,7 +10893,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
@@ -10879,17 +10903,12 @@
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>På undersidan av mycket murken granbit.</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10905,22 +10924,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>106963341</v>
+        <v>106890256</v>
       </c>
       <c r="B87" t="n">
-        <v>89789</v>
+        <v>96334</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10929,52 +10948,49 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>5420</v>
+        <v>220787</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>567984.837964247</v>
+        <v>568225.9482474657</v>
       </c>
       <c r="R87" t="n">
-        <v>6423540.955403989</v>
+        <v>6423218.573073286</v>
       </c>
       <c r="S87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -10998,7 +11014,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -11008,17 +11024,12 @@
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>Mkt gammal</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -11034,22 +11045,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>106963360</v>
+        <v>106889862</v>
       </c>
       <c r="B88" t="n">
-        <v>89780</v>
+        <v>96334</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -11058,44 +11069,49 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4217</v>
+        <v>220787</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>568000.0409120271</v>
+        <v>568384.2173274315</v>
       </c>
       <c r="R88" t="n">
-        <v>6423553.954156703</v>
+        <v>6423076.868876688</v>
       </c>
       <c r="S88" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -11119,7 +11135,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
@@ -11129,17 +11145,12 @@
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>På gammal liggande torr tall</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -11155,19 +11166,19 @@
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>106963355</v>
+        <v>106890237</v>
       </c>
       <c r="B89" t="n">
         <v>96334</v>
@@ -11205,27 +11216,23 @@
           <t>5</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>A 58937  Näringe, Sm</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>567984.4599040921</v>
+        <v>568216.9356868257</v>
       </c>
       <c r="R89" t="n">
-        <v>6423500.604154822</v>
+        <v>6423216.826729111</v>
       </c>
       <c r="S89" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -11249,7 +11256,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
@@ -11259,7 +11266,7 @@
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
@@ -11280,19 +11287,19 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>106963379</v>
+        <v>106888103</v>
       </c>
       <c r="B90" t="n">
         <v>96334</v>
@@ -11325,25 +11332,25 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>567987.0369266951</v>
+        <v>568231.8427203337</v>
       </c>
       <c r="R90" t="n">
-        <v>6423536.745965729</v>
+        <v>6423216.019111387</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -11370,7 +11377,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
@@ -11380,7 +11387,7 @@
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
@@ -11401,22 +11408,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>106963363</v>
+        <v>106888334</v>
       </c>
       <c r="B91" t="n">
-        <v>89412</v>
+        <v>96334</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11425,52 +11432,49 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>568000.0409120271</v>
+        <v>568243.7268221001</v>
       </c>
       <c r="R91" t="n">
-        <v>6423553.954156703</v>
+        <v>6423142.957659895</v>
       </c>
       <c r="S91" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -11494,7 +11498,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
@@ -11504,7 +11508,7 @@
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
@@ -11525,19 +11529,19 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>106963370</v>
+        <v>106889879</v>
       </c>
       <c r="B92" t="n">
         <v>96334</v>
@@ -11570,28 +11574,28 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>567982.3327402722</v>
+        <v>568390.7527353063</v>
       </c>
       <c r="R92" t="n">
-        <v>6423531.888369759</v>
+        <v>6423067.955024878</v>
       </c>
       <c r="S92" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -11615,7 +11619,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
@@ -11625,7 +11629,7 @@
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
@@ -11646,22 +11650,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>106970266</v>
+        <v>106888069</v>
       </c>
       <c r="B93" t="n">
-        <v>76862</v>
+        <v>96334</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11670,44 +11674,49 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6443</v>
+        <v>220787</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Sotlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Acolium inquinans</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Sm.) A.Massal.</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>568115.1972202838</v>
+        <v>568225.9844456767</v>
       </c>
       <c r="R93" t="n">
-        <v>6423506.543789248</v>
+        <v>6423216.450113229</v>
       </c>
       <c r="S93" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -11731,7 +11740,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
@@ -11741,17 +11750,12 @@
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC93" t="inlineStr">
-        <is>
-          <t>På grov stubbe av tall.</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11767,19 +11771,19 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand, Stefan Kasselstrand, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>106963346</v>
+        <v>106888094</v>
       </c>
       <c r="B94" t="n">
         <v>96334</v>
@@ -11814,30 +11818,26 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>567961.1005771976</v>
+        <v>568227.6430370624</v>
       </c>
       <c r="R94" t="n">
-        <v>6423529.404247304</v>
+        <v>6423212.762130958</v>
       </c>
       <c r="S94" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
@@ -11892,19 +11892,19 @@
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>106963389</v>
+        <v>106889526</v>
       </c>
       <c r="B95" t="n">
         <v>96334</v>
@@ -11942,27 +11942,23 @@
           <t>5</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>568115.1972202838</v>
+        <v>568304.4112933173</v>
       </c>
       <c r="R95" t="n">
-        <v>6423506.543789248</v>
+        <v>6423233.714933631</v>
       </c>
       <c r="S95" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -11986,7 +11982,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
@@ -11996,7 +11992,7 @@
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
@@ -12017,22 +12013,22 @@
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>106963384</v>
+        <v>106963295</v>
       </c>
       <c r="B96" t="n">
-        <v>96334</v>
+        <v>88471</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -12045,35 +12041,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>220787</v>
+        <v>59</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fransporing</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Anomoloma myceliosum</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Peck) Niemelä &amp; K.H.Larsson</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
@@ -12081,10 +12076,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>568115.1520447005</v>
+        <v>568309.9574934442</v>
       </c>
       <c r="R96" t="n">
-        <v>6423509.19729699</v>
+        <v>6423095.775163164</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -12127,6 +12122,11 @@
       <c r="AB96" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>På undersidan av mycket murken granbit.</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -12394,6 +12394,236 @@
       </c>
       <c r="AY98" t="inlineStr"/>
     </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>112426014</v>
+      </c>
+      <c r="B99" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>A 58937, Näringe, Sm</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>568241</v>
+      </c>
+      <c r="R99" t="n">
+        <v>6423187</v>
+      </c>
+      <c r="S99" t="n">
+        <v>10</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Odensvi</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF99" t="inlineStr"/>
+      <c r="AG99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT99" t="inlineStr"/>
+      <c r="AW99" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX99" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>112426042</v>
+      </c>
+      <c r="B100" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>A 58937, Näringe, Sm</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>568242</v>
+      </c>
+      <c r="R100" t="n">
+        <v>6423125</v>
+      </c>
+      <c r="S100" t="n">
+        <v>10</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Odensvi</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF100" t="inlineStr"/>
+      <c r="AG100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT100" t="inlineStr"/>
+      <c r="AW100" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX100" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY100" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 58937-2022.xlsx
+++ b/artfynd/A 58937-2022.xlsx
@@ -12399,7 +12399,7 @@
         <v>112426014</v>
       </c>
       <c r="B99" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>112426042</v>
       </c>
       <c r="B100" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>

--- a/artfynd/A 58937-2022.xlsx
+++ b/artfynd/A 58937-2022.xlsx
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106056722</v>
+        <v>105119629</v>
       </c>
       <c r="B3" t="n">
-        <v>96334</v>
+        <v>89412</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,39 +816,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -856,10 +855,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>568177.5447708063</v>
+        <v>568311.9367440912</v>
       </c>
       <c r="R3" t="n">
-        <v>6423312.246072624</v>
+        <v>6423135.627068571</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -886,7 +885,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-01-18</t>
+          <t>2022-12-14</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -896,7 +895,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-01-18</t>
+          <t>2022-12-14</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -929,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>106056757</v>
+        <v>105119644</v>
       </c>
       <c r="B4" t="n">
-        <v>96334</v>
+        <v>89412</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -941,39 +940,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -981,10 +979,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>568195.7083188121</v>
+        <v>568303.4620774299</v>
       </c>
       <c r="R4" t="n">
-        <v>6423401.211857296</v>
+        <v>6423164.682099877</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1011,7 +1009,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-01-18</t>
+          <t>2022-12-14</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1021,7 +1019,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-01-18</t>
+          <t>2022-12-14</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1054,7 +1052,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>106598064</v>
+        <v>105422619</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1087,11 +1085,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1106,10 +1100,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>568315.4057800124</v>
+        <v>568298.5848157029</v>
       </c>
       <c r="R5" t="n">
-        <v>6423243.989577772</v>
+        <v>6423076.468200646</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1136,7 +1130,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1146,7 +1140,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1179,7 +1173,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>106598067</v>
+        <v>105422571</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1214,7 +1208,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1231,10 +1225,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>568309.6109589802</v>
+        <v>568244.0888963499</v>
       </c>
       <c r="R6" t="n">
-        <v>6423240.70529611</v>
+        <v>6423121.727608494</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1261,7 +1255,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1271,7 +1265,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1304,10 +1298,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>106871767</v>
+        <v>105422152</v>
       </c>
       <c r="B7" t="n">
-        <v>94160</v>
+        <v>96334</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1316,42 +1310,53 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2590</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>568103.5357559794</v>
+        <v>568226.303352673</v>
       </c>
       <c r="R7" t="n">
-        <v>6423504.221848943</v>
+        <v>6423166.551161993</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1375,7 +1380,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1385,7 +1390,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1399,28 +1404,29 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>106871841</v>
+        <v>105421933</v>
       </c>
       <c r="B8" t="n">
-        <v>4711</v>
+        <v>96334</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1429,42 +1435,53 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100299</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>568102.4091033634</v>
+        <v>568217.9650988982</v>
       </c>
       <c r="R8" t="n">
-        <v>6423507.918660086</v>
+        <v>6423187.644983268</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1488,7 +1505,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1498,7 +1515,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1506,36 +1523,32 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Gnaggångar och kläckhål</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>106872029</v>
+        <v>105422645</v>
       </c>
       <c r="B9" t="n">
         <v>96334</v>
@@ -1568,25 +1581,28 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>12</t>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>568108.4682921505</v>
+        <v>568286.5896833247</v>
       </c>
       <c r="R9" t="n">
-        <v>6423433.17050597</v>
+        <v>6423062.459714658</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1610,7 +1626,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1620,7 +1636,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1634,28 +1650,29 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>106871829</v>
+        <v>105425731</v>
       </c>
       <c r="B10" t="n">
-        <v>5113</v>
+        <v>56540</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1664,42 +1681,53 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100526</v>
+        <v>103021</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>568102.4091033634</v>
+        <v>568246.6276946943</v>
       </c>
       <c r="R10" t="n">
-        <v>6423507.918660086</v>
+        <v>6423159.996035498</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1723,7 +1751,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1733,17 +1761,12 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Gnaggångar och kläckhål</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1758,22 +1781,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106871077</v>
+        <v>105422589</v>
       </c>
       <c r="B11" t="n">
-        <v>94160</v>
+        <v>96334</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1782,42 +1805,53 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2590</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>568172.601865784</v>
+        <v>568235.8522544515</v>
       </c>
       <c r="R11" t="n">
-        <v>6423383.830219489</v>
+        <v>6423105.659900109</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1841,7 +1875,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1851,7 +1885,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1865,28 +1899,29 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>106871378</v>
+        <v>105422543</v>
       </c>
       <c r="B12" t="n">
-        <v>93276</v>
+        <v>96334</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1895,42 +1930,53 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2170</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hedw.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>568135.9399262374</v>
+        <v>568226.4390960312</v>
       </c>
       <c r="R12" t="n">
-        <v>6423381.613107949</v>
+        <v>6423158.589952862</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1954,7 +2000,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1964,7 +2010,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1978,28 +2024,29 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>106871104</v>
+        <v>105421871</v>
       </c>
       <c r="B13" t="n">
-        <v>89356</v>
+        <v>96334</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2008,42 +2055,53 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>568172.601865784</v>
+        <v>568164.7249615346</v>
       </c>
       <c r="R13" t="n">
-        <v>6423383.830219489</v>
+        <v>6423221.776784076</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2067,7 +2125,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2077,7 +2135,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2091,25 +2149,26 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>106870699</v>
+        <v>105422649</v>
       </c>
       <c r="B14" t="n">
         <v>96334</v>
@@ -2142,25 +2201,28 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>568214.7257949666</v>
+        <v>568329.0615833276</v>
       </c>
       <c r="R14" t="n">
-        <v>6423377.6468242</v>
+        <v>6423036.107955901</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2184,7 +2246,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2194,7 +2256,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2208,28 +2270,29 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>106871368</v>
+        <v>105422557</v>
       </c>
       <c r="B15" t="n">
-        <v>94160</v>
+        <v>96334</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2238,42 +2301,45 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2590</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>568142.0781416936</v>
+        <v>568238.6988842692</v>
       </c>
       <c r="R15" t="n">
-        <v>6423364.729696591</v>
+        <v>6423125.882940792</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2297,7 +2363,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2307,7 +2373,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2321,28 +2387,29 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>106871424</v>
+        <v>105421922</v>
       </c>
       <c r="B16" t="n">
-        <v>94160</v>
+        <v>96334</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2351,42 +2418,53 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2590</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>568181.4874522267</v>
+        <v>568232.0870795322</v>
       </c>
       <c r="R16" t="n">
-        <v>6423393.006441575</v>
+        <v>6423201.689099953</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2410,22 +2488,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2434,25 +2512,26 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106877445</v>
+        <v>105421910</v>
       </c>
       <c r="B17" t="n">
         <v>96334</v>
@@ -2487,7 +2566,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2504,10 +2583,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>568213.0491843376</v>
+        <v>568192.0520887745</v>
       </c>
       <c r="R17" t="n">
-        <v>6423382.396095154</v>
+        <v>6423210.031840586</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2534,7 +2613,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2544,7 +2623,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2570,17 +2649,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Ingvor Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>106872801</v>
+        <v>105425734</v>
       </c>
       <c r="B18" t="n">
-        <v>96334</v>
+        <v>56411</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2589,46 +2668,53 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>568151.266313712</v>
+        <v>568246.6276946943</v>
       </c>
       <c r="R18" t="n">
-        <v>6423449.82520284</v>
+        <v>6423159.996035498</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2652,7 +2738,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2662,7 +2748,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2682,22 +2768,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>106871837</v>
+        <v>105421944</v>
       </c>
       <c r="B19" t="n">
-        <v>5135</v>
+        <v>96334</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2706,42 +2792,53 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>568102.4091033634</v>
+        <v>568217.1437991657</v>
       </c>
       <c r="R19" t="n">
-        <v>6423507.918660086</v>
+        <v>6423204.619688316</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2765,7 +2862,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2775,7 +2872,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2783,39 +2880,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Gnaggångar och kläckhål</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>106877790</v>
+        <v>105422598</v>
       </c>
       <c r="B20" t="n">
-        <v>5113</v>
+        <v>96334</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2824,36 +2917,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2861,10 +2953,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>568225.9238225697</v>
+        <v>568273.1752335984</v>
       </c>
       <c r="R20" t="n">
-        <v>6423438.356837193</v>
+        <v>6423100.456522962</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2891,7 +2983,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2901,7 +2993,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2915,6 +3007,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2933,10 +3026,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>106886127</v>
+        <v>105422548</v>
       </c>
       <c r="B21" t="n">
-        <v>93276</v>
+        <v>96334</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2945,45 +3038,53 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2170</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Hedw.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Holmhult O, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>568122.7461809935</v>
+        <v>568246.7929588399</v>
       </c>
       <c r="R21" t="n">
-        <v>6423375.548852002</v>
+        <v>6423119.119190352</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3007,7 +3108,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3017,17 +3118,12 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>skogskärr</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3043,19 +3139,19 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Stefan Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Stefan Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>106872049</v>
+        <v>105421960</v>
       </c>
       <c r="B22" t="n">
         <v>96334</v>
@@ -3088,21 +3184,32 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>568181.4874522267</v>
+        <v>568230.3039840964</v>
       </c>
       <c r="R22" t="n">
-        <v>6423393.006441575</v>
+        <v>6423181.484579422</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3126,22 +3233,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3150,28 +3257,29 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>106886111</v>
+        <v>105422634</v>
       </c>
       <c r="B23" t="n">
-        <v>94160</v>
+        <v>96334</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3180,42 +3288,46 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2590</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Holmhult O, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>568176.1268112538</v>
+        <v>568275.2323759119</v>
       </c>
       <c r="R23" t="n">
-        <v>6423364.247966006</v>
+        <v>6423073.415119138</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3242,7 +3354,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3252,17 +3364,12 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>kärrkant</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3278,19 +3385,19 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Stefan Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Stefan Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>106890138</v>
+        <v>105422430</v>
       </c>
       <c r="B24" t="n">
         <v>96334</v>
@@ -3325,26 +3432,30 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>568210.768471033</v>
+        <v>568215.3355698985</v>
       </c>
       <c r="R24" t="n">
-        <v>6423391.382034641</v>
+        <v>6423154.684330427</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3368,7 +3479,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3378,7 +3489,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3399,22 +3510,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>106890059</v>
+        <v>105421900</v>
       </c>
       <c r="B25" t="n">
-        <v>93276</v>
+        <v>96334</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3423,45 +3534,53 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2170</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Hedw.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>568126.9186633714</v>
+        <v>568194.6203772638</v>
       </c>
       <c r="R25" t="n">
-        <v>6423380.397747971</v>
+        <v>6423215.384558749</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3485,7 +3604,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3495,17 +3614,12 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>På en låga i sankmark</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3521,19 +3635,19 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Amanda Tas, Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>106890126</v>
+        <v>105421887</v>
       </c>
       <c r="B26" t="n">
         <v>96334</v>
@@ -3568,26 +3682,30 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>568114.1093951658</v>
+        <v>568180.5869329767</v>
       </c>
       <c r="R26" t="n">
-        <v>6423445.476418414</v>
+        <v>6423227.355964031</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3611,7 +3729,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3621,7 +3739,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3642,22 +3760,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>106963341</v>
+        <v>106056722</v>
       </c>
       <c r="B27" t="n">
-        <v>89789</v>
+        <v>96334</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3666,38 +3784,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5420</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3705,10 +3824,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>567984.837964247</v>
+        <v>568177.5447708063</v>
       </c>
       <c r="R27" t="n">
-        <v>6423540.955403989</v>
+        <v>6423312.246072624</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3735,7 +3854,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3745,17 +3864,12 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Mkt gammal</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3783,10 +3897,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>106963360</v>
+        <v>106056757</v>
       </c>
       <c r="B28" t="n">
-        <v>89780</v>
+        <v>96334</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3795,30 +3909,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4217</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3826,10 +3949,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>568000.0409120271</v>
+        <v>568195.7083188121</v>
       </c>
       <c r="R28" t="n">
-        <v>6423553.954156703</v>
+        <v>6423401.211857296</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3856,7 +3979,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3866,17 +3989,12 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>På gammal liggande torr tall</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3904,7 +4022,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>106963355</v>
+        <v>106598064</v>
       </c>
       <c r="B29" t="n">
         <v>96334</v>
@@ -3939,7 +4057,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3956,10 +4074,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>567984.4599040921</v>
+        <v>568315.4057800124</v>
       </c>
       <c r="R29" t="n">
-        <v>6423500.604154822</v>
+        <v>6423243.989577772</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3986,7 +4104,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3996,7 +4114,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4029,7 +4147,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>106963379</v>
+        <v>106598067</v>
       </c>
       <c r="B30" t="n">
         <v>96334</v>
@@ -4062,7 +4180,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -4077,10 +4199,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>567987.0369266951</v>
+        <v>568309.6109589802</v>
       </c>
       <c r="R30" t="n">
-        <v>6423536.745965729</v>
+        <v>6423240.70529611</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4107,7 +4229,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4117,7 +4239,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4150,10 +4272,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>106963363</v>
+        <v>106871767</v>
       </c>
       <c r="B31" t="n">
-        <v>89412</v>
+        <v>94160</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4162,52 +4284,42 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5442</v>
+        <v>2590</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>568000.0409120271</v>
+        <v>568103.5357559794</v>
       </c>
       <c r="R31" t="n">
-        <v>6423553.954156703</v>
+        <v>6423504.221848943</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4231,7 +4343,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4241,7 +4353,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4255,29 +4367,28 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>106963370</v>
+        <v>106871841</v>
       </c>
       <c r="B32" t="n">
-        <v>96334</v>
+        <v>4711</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4286,49 +4397,42 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>100299</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>567982.3327402722</v>
+        <v>568102.4091033634</v>
       </c>
       <c r="R32" t="n">
-        <v>6423531.888369759</v>
+        <v>6423507.918660086</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4352,7 +4456,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4362,7 +4466,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4370,35 +4474,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Gnaggångar och kläckhål</t>
+        </is>
+      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>106970266</v>
+        <v>106868208</v>
       </c>
       <c r="B33" t="n">
-        <v>76862</v>
+        <v>96334</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4407,44 +4515,42 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6443</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sotlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Acolium inquinans</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Sm.) A.Massal.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>568115.1972202838</v>
+        <v>568238.5450146624</v>
       </c>
       <c r="R33" t="n">
-        <v>6423506.543789248</v>
+        <v>6423134.905716937</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4468,7 +4574,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4478,7 +4584,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4486,37 +4592,31 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>På grov stubbe av tall.</t>
-        </is>
-      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>106963346</v>
+        <v>106867524</v>
       </c>
       <c r="B34" t="n">
         <v>96334</v>
@@ -4549,32 +4649,21 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>567961.1005771976</v>
+        <v>568240.8552770936</v>
       </c>
       <c r="R34" t="n">
-        <v>6423529.404247304</v>
+        <v>6423217.765489589</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4598,7 +4687,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4608,7 +4697,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4622,26 +4711,25 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>106963389</v>
+        <v>106877292</v>
       </c>
       <c r="B35" t="n">
         <v>96334</v>
@@ -4693,10 +4781,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>568115.1972202838</v>
+        <v>568199.1005086692</v>
       </c>
       <c r="R35" t="n">
-        <v>6423506.543789248</v>
+        <v>6423202.18853304</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4723,7 +4811,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4733,7 +4821,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4766,7 +4854,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>106963384</v>
+        <v>106877256</v>
       </c>
       <c r="B36" t="n">
         <v>96334</v>
@@ -4799,11 +4887,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -4818,10 +4902,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>568115.1520447005</v>
+        <v>568208.7896145446</v>
       </c>
       <c r="R36" t="n">
-        <v>6423509.19729699</v>
+        <v>6423195.452029183</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4848,7 +4932,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4858,7 +4942,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4891,10 +4975,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>105119629</v>
+        <v>106867091</v>
       </c>
       <c r="B37" t="n">
-        <v>89412</v>
+        <v>96334</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4903,52 +4987,42 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>568311.9367440912</v>
+        <v>568212.9079008818</v>
       </c>
       <c r="R37" t="n">
-        <v>6423135.627068571</v>
+        <v>6423203.485682623</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4972,7 +5046,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4982,7 +5056,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4996,29 +5070,28 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>105119644</v>
+        <v>106866966</v>
       </c>
       <c r="B38" t="n">
-        <v>89412</v>
+        <v>96334</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5027,52 +5100,46 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>568303.4620774299</v>
+        <v>568179.5143972139</v>
       </c>
       <c r="R38" t="n">
-        <v>6423164.682099877</v>
+        <v>6423227.868581393</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5096,7 +5163,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -5106,7 +5173,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -5120,29 +5187,28 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>105422619</v>
+        <v>106870133</v>
       </c>
       <c r="B39" t="n">
-        <v>96334</v>
+        <v>56540</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5151,49 +5217,42 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>568298.5848157029</v>
+        <v>568288.8212444638</v>
       </c>
       <c r="R39" t="n">
-        <v>6423076.468200646</v>
+        <v>6423212.213075593</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5217,22 +5276,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5241,26 +5300,25 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>105422571</v>
+        <v>106867883</v>
       </c>
       <c r="B40" t="n">
         <v>96334</v>
@@ -5295,7 +5353,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5304,21 +5362,19 @@
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>568244.0888963499</v>
+        <v>568234.4335275906</v>
       </c>
       <c r="R40" t="n">
-        <v>6423121.727608494</v>
+        <v>6423157.664466224</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5342,22 +5398,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5366,26 +5422,25 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>105422152</v>
+        <v>106872029</v>
       </c>
       <c r="B41" t="n">
         <v>96334</v>
@@ -5420,30 +5475,23 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>568226.303352673</v>
+        <v>568108.4682921505</v>
       </c>
       <c r="R41" t="n">
-        <v>6423166.551161993</v>
+        <v>6423433.17050597</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5467,7 +5515,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5477,7 +5525,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5491,29 +5539,28 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>105421933</v>
+        <v>106871829</v>
       </c>
       <c r="B42" t="n">
-        <v>96334</v>
+        <v>5113</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5522,53 +5569,42 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>568217.9650988982</v>
+        <v>568102.4091033634</v>
       </c>
       <c r="R42" t="n">
-        <v>6423187.644983268</v>
+        <v>6423507.918660086</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5592,7 +5628,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5602,7 +5638,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5610,35 +5646,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Gnaggångar och kläckhål</t>
+        </is>
+      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>105422645</v>
+        <v>106871077</v>
       </c>
       <c r="B43" t="n">
-        <v>96334</v>
+        <v>94160</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5647,49 +5687,42 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>2590</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>568286.5896833247</v>
+        <v>568172.601865784</v>
       </c>
       <c r="R43" t="n">
-        <v>6423062.459714658</v>
+        <v>6423383.830219489</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5713,7 +5746,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5723,7 +5756,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -5737,29 +5770,28 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>105425731</v>
+        <v>106867947</v>
       </c>
       <c r="B44" t="n">
-        <v>56540</v>
+        <v>96334</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5768,53 +5800,46 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>568246.6276946943</v>
+        <v>568216.2995511775</v>
       </c>
       <c r="R44" t="n">
-        <v>6423159.996035498</v>
+        <v>6423160.540688219</v>
       </c>
       <c r="S44" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5838,7 +5863,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5848,7 +5873,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5868,19 +5893,19 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>105422589</v>
+        <v>106868153</v>
       </c>
       <c r="B45" t="n">
         <v>96334</v>
@@ -5915,30 +5940,23 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>568235.8522544515</v>
+        <v>568232.4875125707</v>
       </c>
       <c r="R45" t="n">
-        <v>6423105.659900109</v>
+        <v>6423147.013222875</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5962,7 +5980,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5972,7 +5990,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -5986,26 +6004,25 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>105422543</v>
+        <v>106867789</v>
       </c>
       <c r="B46" t="n">
         <v>96334</v>
@@ -6040,30 +6057,23 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>568226.4390960312</v>
+        <v>568240.4163294947</v>
       </c>
       <c r="R46" t="n">
-        <v>6423158.589952862</v>
+        <v>6423181.126125624</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6087,7 +6097,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -6097,7 +6107,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -6111,29 +6121,28 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
-      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>105421871</v>
+        <v>106870130</v>
       </c>
       <c r="B47" t="n">
-        <v>96334</v>
+        <v>56540</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6142,53 +6151,47 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>568164.7249615346</v>
+        <v>568279.7905801303</v>
       </c>
       <c r="R47" t="n">
-        <v>6423221.776784076</v>
+        <v>6423211.528068624</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6212,7 +6215,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -6222,7 +6225,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -6236,29 +6239,28 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>105422649</v>
+        <v>106871378</v>
       </c>
       <c r="B48" t="n">
-        <v>96334</v>
+        <v>93276</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6267,49 +6269,42 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>220787</v>
+        <v>2170</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>568329.0615833276</v>
+        <v>568135.9399262374</v>
       </c>
       <c r="R48" t="n">
-        <v>6423036.107955901</v>
+        <v>6423381.613107949</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6333,7 +6328,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -6343,7 +6338,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -6357,29 +6352,28 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>105422557</v>
+        <v>106871104</v>
       </c>
       <c r="B49" t="n">
-        <v>96334</v>
+        <v>89356</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6388,45 +6382,42 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>568238.6988842692</v>
+        <v>568172.601865784</v>
       </c>
       <c r="R49" t="n">
-        <v>6423125.882940792</v>
+        <v>6423383.830219489</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6450,7 +6441,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -6460,7 +6451,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -6474,26 +6465,25 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>105421922</v>
+        <v>106867243</v>
       </c>
       <c r="B50" t="n">
         <v>96334</v>
@@ -6526,32 +6516,21 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>568232.0870795322</v>
+        <v>568217.7479359548</v>
       </c>
       <c r="R50" t="n">
-        <v>6423201.689099953</v>
+        <v>6423200.382817974</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6575,7 +6554,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6585,7 +6564,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6599,26 +6578,25 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>105421910</v>
+        <v>106867673</v>
       </c>
       <c r="B51" t="n">
         <v>96334</v>
@@ -6653,30 +6631,23 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>568192.0520887745</v>
+        <v>568213.0798093656</v>
       </c>
       <c r="R51" t="n">
-        <v>6423210.031840586</v>
+        <v>6423193.401574683</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6700,7 +6671,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6710,7 +6681,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6724,29 +6695,28 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>105425734</v>
+        <v>106867829</v>
       </c>
       <c r="B52" t="n">
-        <v>56411</v>
+        <v>89412</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6759,49 +6729,42 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100049</v>
+        <v>5442</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>568246.6276946943</v>
+        <v>568236.5605495451</v>
       </c>
       <c r="R52" t="n">
-        <v>6423159.996035498</v>
+        <v>6423157.700738003</v>
       </c>
       <c r="S52" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6825,7 +6788,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6835,7 +6798,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -6855,22 +6818,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>105421944</v>
+        <v>106868157</v>
       </c>
       <c r="B53" t="n">
-        <v>96334</v>
+        <v>56540</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6879,53 +6842,51 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>568217.1437991657</v>
+        <v>568220.5716894561</v>
       </c>
       <c r="R53" t="n">
-        <v>6423204.619688316</v>
+        <v>6423159.551718453</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6949,22 +6910,22 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6973,26 +6934,25 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>105422598</v>
+        <v>106870699</v>
       </c>
       <c r="B54" t="n">
         <v>96334</v>
@@ -7025,28 +6985,25 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>568273.1752335984</v>
+        <v>568214.7257949666</v>
       </c>
       <c r="R54" t="n">
-        <v>6423100.456522962</v>
+        <v>6423377.6468242</v>
       </c>
       <c r="S54" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -7070,7 +7027,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -7080,7 +7037,7 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
@@ -7094,29 +7051,28 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>105422548</v>
+        <v>106871368</v>
       </c>
       <c r="B55" t="n">
-        <v>96334</v>
+        <v>94160</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7125,53 +7081,42 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>220787</v>
+        <v>2590</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>568246.7929588399</v>
+        <v>568142.0781416936</v>
       </c>
       <c r="R55" t="n">
-        <v>6423119.119190352</v>
+        <v>6423364.729696591</v>
       </c>
       <c r="S55" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7195,7 +7140,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -7205,7 +7150,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -7219,29 +7164,28 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>105421960</v>
+        <v>106871424</v>
       </c>
       <c r="B56" t="n">
-        <v>96334</v>
+        <v>94160</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7250,53 +7194,42 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>220787</v>
+        <v>2590</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>568230.3039840964</v>
+        <v>568181.4874522267</v>
       </c>
       <c r="R56" t="n">
-        <v>6423181.484579422</v>
+        <v>6423393.006441575</v>
       </c>
       <c r="S56" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7320,22 +7253,22 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7344,26 +7277,25 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>105422634</v>
+        <v>106867602</v>
       </c>
       <c r="B57" t="n">
         <v>96334</v>
@@ -7396,28 +7328,25 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>568275.2323759119</v>
+        <v>568232.286187418</v>
       </c>
       <c r="R57" t="n">
-        <v>6423073.415119138</v>
+        <v>6423190.012756537</v>
       </c>
       <c r="S57" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7441,7 +7370,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -7451,7 +7380,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -7465,26 +7394,25 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>105422430</v>
+        <v>106877270</v>
       </c>
       <c r="B58" t="n">
         <v>96334</v>
@@ -7519,7 +7447,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -7536,10 +7464,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>568215.3355698985</v>
+        <v>568193.1155857585</v>
       </c>
       <c r="R58" t="n">
-        <v>6423154.684330427</v>
+        <v>6423210.049965162</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7566,7 +7494,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7576,7 +7504,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7609,7 +7537,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>105421900</v>
+        <v>106877445</v>
       </c>
       <c r="B59" t="n">
         <v>96334</v>
@@ -7644,7 +7572,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -7661,10 +7589,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>568194.6203772638</v>
+        <v>568213.0491843376</v>
       </c>
       <c r="R59" t="n">
-        <v>6423215.384558749</v>
+        <v>6423382.396095154</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7691,7 +7619,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -7701,7 +7629,7 @@
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -7727,14 +7655,14 @@
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>105421887</v>
+        <v>106872801</v>
       </c>
       <c r="B60" t="n">
         <v>96334</v>
@@ -7769,30 +7697,23 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Vasa, Sm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>568180.5869329767</v>
+        <v>568151.266313712</v>
       </c>
       <c r="R60" t="n">
-        <v>6423227.355964031</v>
+        <v>6423449.82520284</v>
       </c>
       <c r="S60" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7816,7 +7737,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7826,7 +7747,7 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
@@ -7840,29 +7761,28 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>106868208</v>
+        <v>106871837</v>
       </c>
       <c r="B61" t="n">
-        <v>96334</v>
+        <v>5135</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7871,25 +7791,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7900,13 +7820,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>568238.5450146624</v>
+        <v>568102.4091033634</v>
       </c>
       <c r="R61" t="n">
-        <v>6423134.905716937</v>
+        <v>6423507.918660086</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7946,6 +7866,11 @@
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Gnaggångar och kläckhål</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7960,19 +7885,19 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>106867524</v>
+        <v>106866807</v>
       </c>
       <c r="B62" t="n">
         <v>96334</v>
@@ -8005,7 +7930,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -8013,13 +7942,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>568240.8552770936</v>
+        <v>568175.1627357623</v>
       </c>
       <c r="R62" t="n">
-        <v>6423217.765489589</v>
+        <v>6423202.311504968</v>
       </c>
       <c r="S62" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -8073,22 +8002,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Lundberg</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>106877292</v>
+        <v>106877790</v>
       </c>
       <c r="B63" t="n">
-        <v>96334</v>
+        <v>5113</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8097,39 +8026,36 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -8137,10 +8063,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>568199.1005086692</v>
+        <v>568225.9238225697</v>
       </c>
       <c r="R63" t="n">
-        <v>6423202.18853304</v>
+        <v>6423438.356837193</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8191,7 +8117,6 @@
       <c r="AE63" t="b">
         <v>0</v>
       </c>
-      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -8210,10 +8135,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>106877256</v>
+        <v>106886127</v>
       </c>
       <c r="B64" t="n">
-        <v>96334</v>
+        <v>93276</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8222,49 +8147,45 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>220787</v>
+        <v>2170</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>Holmhult O, Sm</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>568208.7896145446</v>
+        <v>568122.7461809935</v>
       </c>
       <c r="R64" t="n">
-        <v>6423195.452029183</v>
+        <v>6423375.548852002</v>
       </c>
       <c r="S64" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8304,6 +8225,11 @@
       <c r="AB64" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>skogskärr</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8319,19 +8245,19 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Stefan Kasselstrand</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Stefan Kasselstrand</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>106867091</v>
+        <v>106866903</v>
       </c>
       <c r="B65" t="n">
         <v>96334</v>
@@ -8364,7 +8290,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8372,13 +8302,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>568212.9079008818</v>
+        <v>568178.4599482497</v>
       </c>
       <c r="R65" t="n">
-        <v>6423203.485682623</v>
+        <v>6423227.319721757</v>
       </c>
       <c r="S65" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8444,7 +8374,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>106866966</v>
+        <v>106872049</v>
       </c>
       <c r="B66" t="n">
         <v>96334</v>
@@ -8477,11 +8407,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -8489,10 +8415,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>568179.5143972139</v>
+        <v>568181.4874522267</v>
       </c>
       <c r="R66" t="n">
-        <v>6423227.868581393</v>
+        <v>6423393.006441575</v>
       </c>
       <c r="S66" t="n">
         <v>2</v>
@@ -8524,7 +8450,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8534,7 +8460,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8549,22 +8475,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>106870133</v>
+        <v>106886111</v>
       </c>
       <c r="B67" t="n">
-        <v>56540</v>
+        <v>94160</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8573,42 +8499,45 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>103021</v>
+        <v>2590</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>Holmhult O, Sm</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>568288.8212444638</v>
+        <v>568176.1268112538</v>
       </c>
       <c r="R67" t="n">
-        <v>6423212.213075593</v>
+        <v>6423364.247966006</v>
       </c>
       <c r="S67" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8637,7 +8566,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8647,7 +8576,12 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>kärrkant</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8656,28 +8590,29 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
+      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Stefan Kasselstrand</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Stefan Kasselstrand</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>106867883</v>
+        <v>106890198</v>
       </c>
       <c r="B68" t="n">
-        <v>96334</v>
+        <v>103265</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8686,51 +8621,49 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>568234.4335275906</v>
+        <v>568210.6090004898</v>
       </c>
       <c r="R68" t="n">
-        <v>6423157.664466224</v>
+        <v>6423213.533505927</v>
       </c>
       <c r="S68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -8759,7 +8692,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8769,7 +8702,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8778,25 +8711,26 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
+      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>106867947</v>
+        <v>106889573</v>
       </c>
       <c r="B69" t="n">
         <v>96334</v>
@@ -8831,23 +8765,26 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>568216.2995511775</v>
+        <v>568293.3731735148</v>
       </c>
       <c r="R69" t="n">
-        <v>6423160.540688219</v>
+        <v>6423101.332099708</v>
       </c>
       <c r="S69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -8895,25 +8832,26 @@
       <c r="AE69" t="b">
         <v>0</v>
       </c>
+      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>106868153</v>
+        <v>106888300</v>
       </c>
       <c r="B70" t="n">
         <v>96334</v>
@@ -8951,20 +8889,23 @@
           <t>7</t>
         </is>
       </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>568232.4875125707</v>
+        <v>568230.9330781992</v>
       </c>
       <c r="R70" t="n">
-        <v>6423147.013222875</v>
+        <v>6423206.978382651</v>
       </c>
       <c r="S70" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -9012,25 +8953,26 @@
       <c r="AE70" t="b">
         <v>0</v>
       </c>
+      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>106867789</v>
+        <v>106890182</v>
       </c>
       <c r="B71" t="n">
         <v>96334</v>
@@ -9065,23 +9007,26 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>85</t>
-        </is>
-      </c>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>568240.4163294947</v>
+        <v>568208.9504252685</v>
       </c>
       <c r="R71" t="n">
-        <v>6423181.126125624</v>
+        <v>6423217.221494167</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -9129,28 +9074,29 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
+      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
       </c>
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>106870130</v>
+        <v>106890138</v>
       </c>
       <c r="B72" t="n">
-        <v>56540</v>
+        <v>96334</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9159,47 +9105,49 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>568279.7905801303</v>
+        <v>568210.768471033</v>
       </c>
       <c r="R72" t="n">
-        <v>6423211.528068624</v>
+        <v>6423391.382034641</v>
       </c>
       <c r="S72" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -9247,28 +9195,29 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
+      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
       </c>
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>106867243</v>
+        <v>106890059</v>
       </c>
       <c r="B73" t="n">
-        <v>96334</v>
+        <v>93276</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9277,42 +9226,45 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>220787</v>
+        <v>2170</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>568217.7479359548</v>
+        <v>568126.9186633714</v>
       </c>
       <c r="R73" t="n">
-        <v>6423200.382817974</v>
+        <v>6423380.397747971</v>
       </c>
       <c r="S73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -9354,31 +9306,37 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>På en låga i sankmark</t>
+        </is>
+      </c>
       <c r="AD73" t="b">
         <v>0</v>
       </c>
       <c r="AE73" t="b">
         <v>0</v>
       </c>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson, Amanda Tas, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>106867673</v>
+        <v>106888385</v>
       </c>
       <c r="B74" t="n">
         <v>96334</v>
@@ -9413,23 +9371,26 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>568213.0798093656</v>
+        <v>568239.6085316972</v>
       </c>
       <c r="R74" t="n">
-        <v>6423193.401574683</v>
+        <v>6423134.923853738</v>
       </c>
       <c r="S74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -9477,28 +9438,29 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>106867829</v>
+        <v>106890220</v>
       </c>
       <c r="B75" t="n">
-        <v>89412</v>
+        <v>103265</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9507,46 +9469,49 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>568236.5605495451</v>
+        <v>568216.9356868257</v>
       </c>
       <c r="R75" t="n">
-        <v>6423157.700738003</v>
+        <v>6423216.826729111</v>
       </c>
       <c r="S75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9594,28 +9559,29 @@
       <c r="AE75" t="b">
         <v>0</v>
       </c>
+      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>106868157</v>
+        <v>106890126</v>
       </c>
       <c r="B76" t="n">
-        <v>56540</v>
+        <v>96334</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9624,51 +9590,49 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>568220.5716894561</v>
+        <v>568114.1093951658</v>
       </c>
       <c r="R76" t="n">
-        <v>6423159.551718453</v>
+        <v>6423445.476418414</v>
       </c>
       <c r="S76" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9697,7 +9661,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9707,7 +9671,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9716,25 +9680,26 @@
       <c r="AE76" t="b">
         <v>0</v>
       </c>
+      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="b">
         <v>0</v>
       </c>
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>106867602</v>
+        <v>106890256</v>
       </c>
       <c r="B77" t="n">
         <v>96334</v>
@@ -9772,20 +9737,23 @@
           <t>10</t>
         </is>
       </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>568232.286187418</v>
+        <v>568225.9482474657</v>
       </c>
       <c r="R77" t="n">
-        <v>6423190.012756537</v>
+        <v>6423218.573073286</v>
       </c>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9833,25 +9801,26 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
+      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>106877270</v>
+        <v>106889862</v>
       </c>
       <c r="B78" t="n">
         <v>96334</v>
@@ -9886,30 +9855,26 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>A 58937, Näringe, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>568193.1155857585</v>
+        <v>568384.2173274315</v>
       </c>
       <c r="R78" t="n">
-        <v>6423210.049965162</v>
+        <v>6423076.868876688</v>
       </c>
       <c r="S78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9964,19 +9929,19 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>106866807</v>
+        <v>106890237</v>
       </c>
       <c r="B79" t="n">
         <v>96334</v>
@@ -10014,20 +9979,23 @@
           <t>5</t>
         </is>
       </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937  Näringe, Sm</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>568175.1627357623</v>
+        <v>568216.9356868257</v>
       </c>
       <c r="R79" t="n">
-        <v>6423202.311504968</v>
+        <v>6423216.826729111</v>
       </c>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -10075,25 +10043,26 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
+      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>106866903</v>
+        <v>106888103</v>
       </c>
       <c r="B80" t="n">
         <v>96334</v>
@@ -10131,20 +10100,23 @@
           <t>7</t>
         </is>
       </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Vasa, Sm</t>
+          <t>A 58937 Näringe, Sm</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>568178.4599482497</v>
+        <v>568231.8427203337</v>
       </c>
       <c r="R80" t="n">
-        <v>6423227.319721757</v>
+        <v>6423216.019111387</v>
       </c>
       <c r="S80" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -10192,28 +10164,29 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Louise Lundberg</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>106890198</v>
+        <v>106888334</v>
       </c>
       <c r="B81" t="n">
-        <v>103265</v>
+        <v>96334</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10222,30 +10195,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -10258,10 +10231,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>568210.6090004898</v>
+        <v>568243.7268221001</v>
       </c>
       <c r="R81" t="n">
-        <v>6423213.533505927</v>
+        <v>6423142.957659895</v>
       </c>
       <c r="S81" t="n">
         <v>5</v>
@@ -10331,7 +10304,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>106889573</v>
+        <v>106889879</v>
       </c>
       <c r="B82" t="n">
         <v>96334</v>
@@ -10366,7 +10339,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -10379,10 +10352,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>568293.3731735148</v>
+        <v>568390.7527353063</v>
       </c>
       <c r="R82" t="n">
-        <v>6423101.332099708</v>
+        <v>6423067.955024878</v>
       </c>
       <c r="S82" t="n">
         <v>5</v>
@@ -10452,7 +10425,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>106888300</v>
+        <v>106888069</v>
       </c>
       <c r="B83" t="n">
         <v>96334</v>
@@ -10487,7 +10460,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -10500,10 +10473,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>568230.9330781992</v>
+        <v>568225.9844456767</v>
       </c>
       <c r="R83" t="n">
-        <v>6423206.978382651</v>
+        <v>6423216.450113229</v>
       </c>
       <c r="S83" t="n">
         <v>5</v>
@@ -10566,14 +10539,14 @@
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand, Stefan Kasselstrand, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>106890182</v>
+        <v>106888094</v>
       </c>
       <c r="B84" t="n">
         <v>96334</v>
@@ -10608,7 +10581,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -10621,10 +10594,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>568208.9504252685</v>
+        <v>568227.6430370624</v>
       </c>
       <c r="R84" t="n">
-        <v>6423217.221494167</v>
+        <v>6423212.762130958</v>
       </c>
       <c r="S84" t="n">
         <v>5</v>
@@ -10694,7 +10667,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>106888385</v>
+        <v>106889526</v>
       </c>
       <c r="B85" t="n">
         <v>96334</v>
@@ -10729,7 +10702,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -10742,10 +10715,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>568239.6085316972</v>
+        <v>568304.4112933173</v>
       </c>
       <c r="R85" t="n">
-        <v>6423134.923853738</v>
+        <v>6423233.714933631</v>
       </c>
       <c r="S85" t="n">
         <v>5</v>
@@ -10815,10 +10788,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>106890220</v>
+        <v>106963295</v>
       </c>
       <c r="B86" t="n">
-        <v>103265</v>
+        <v>88471</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10827,25 +10800,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>221144</v>
+        <v>59</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Fransporing</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Anomoloma myceliosum</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Peck) Niemelä &amp; K.H.Larsson</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -10853,23 +10826,26 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>568216.9356868257</v>
+        <v>568309.9574934442</v>
       </c>
       <c r="R86" t="n">
-        <v>6423216.826729111</v>
+        <v>6423095.775163164</v>
       </c>
       <c r="S86" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -10893,7 +10869,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
@@ -10903,12 +10879,17 @@
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>På undersidan av mycket murken granbit.</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10924,22 +10905,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>106890256</v>
+        <v>106963341</v>
       </c>
       <c r="B87" t="n">
-        <v>96334</v>
+        <v>89789</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10948,49 +10929,52 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>220787</v>
+        <v>5420</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>568225.9482474657</v>
+        <v>567984.837964247</v>
       </c>
       <c r="R87" t="n">
-        <v>6423218.573073286</v>
+        <v>6423540.955403989</v>
       </c>
       <c r="S87" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -11014,7 +10998,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -11024,12 +11008,17 @@
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>Mkt gammal</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -11045,22 +11034,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>106889862</v>
+        <v>106963360</v>
       </c>
       <c r="B88" t="n">
-        <v>96334</v>
+        <v>89780</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -11069,49 +11058,44 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>220787</v>
+        <v>4217</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
+          <t>(Pers.:Fr.) Bondartsev</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>568384.2173274315</v>
+        <v>568000.0409120271</v>
       </c>
       <c r="R88" t="n">
-        <v>6423076.868876688</v>
+        <v>6423553.954156703</v>
       </c>
       <c r="S88" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -11135,7 +11119,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
@@ -11145,12 +11129,17 @@
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>På gammal liggande torr tall</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -11166,19 +11155,19 @@
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>106890237</v>
+        <v>106963355</v>
       </c>
       <c r="B89" t="n">
         <v>96334</v>
@@ -11216,23 +11205,27 @@
           <t>5</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>A 58937  Näringe, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>568216.9356868257</v>
+        <v>567984.4599040921</v>
       </c>
       <c r="R89" t="n">
-        <v>6423216.826729111</v>
+        <v>6423500.604154822</v>
       </c>
       <c r="S89" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -11256,7 +11249,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
@@ -11266,7 +11259,7 @@
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
@@ -11287,19 +11280,19 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>106888103</v>
+        <v>106963379</v>
       </c>
       <c r="B90" t="n">
         <v>96334</v>
@@ -11332,25 +11325,25 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>568231.8427203337</v>
+        <v>567987.0369266951</v>
       </c>
       <c r="R90" t="n">
-        <v>6423216.019111387</v>
+        <v>6423536.745965729</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -11377,7 +11370,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
@@ -11387,7 +11380,7 @@
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
@@ -11408,22 +11401,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>106888334</v>
+        <v>106963363</v>
       </c>
       <c r="B91" t="n">
-        <v>96334</v>
+        <v>89412</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11432,49 +11425,52 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>568243.7268221001</v>
+        <v>568000.0409120271</v>
       </c>
       <c r="R91" t="n">
-        <v>6423142.957659895</v>
+        <v>6423553.954156703</v>
       </c>
       <c r="S91" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -11498,7 +11494,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
@@ -11508,7 +11504,7 @@
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
@@ -11529,19 +11525,19 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>106889879</v>
+        <v>106963370</v>
       </c>
       <c r="B92" t="n">
         <v>96334</v>
@@ -11574,28 +11570,28 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>568390.7527353063</v>
+        <v>567982.3327402722</v>
       </c>
       <c r="R92" t="n">
-        <v>6423067.955024878</v>
+        <v>6423531.888369759</v>
       </c>
       <c r="S92" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -11619,7 +11615,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
@@ -11629,7 +11625,7 @@
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
@@ -11650,22 +11646,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>106888069</v>
+        <v>106970266</v>
       </c>
       <c r="B93" t="n">
-        <v>96334</v>
+        <v>76862</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11674,49 +11670,44 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>220787</v>
+        <v>6443</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Sotlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Acolium inquinans</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Sm.) A.Massal.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>568225.9844456767</v>
+        <v>568115.1972202838</v>
       </c>
       <c r="R93" t="n">
-        <v>6423216.450113229</v>
+        <v>6423506.543789248</v>
       </c>
       <c r="S93" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -11740,7 +11731,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
@@ -11750,12 +11741,17 @@
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>På grov stubbe av tall.</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11771,19 +11767,19 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand, Magnus Kasselstrand, Stefan Kasselstrand, Erland Lindblad</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>106888094</v>
+        <v>106963346</v>
       </c>
       <c r="B94" t="n">
         <v>96334</v>
@@ -11818,26 +11814,30 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr"/>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>568227.6430370624</v>
+        <v>567961.1005771976</v>
       </c>
       <c r="R94" t="n">
-        <v>6423212.762130958</v>
+        <v>6423529.404247304</v>
       </c>
       <c r="S94" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
@@ -11892,19 +11892,19 @@
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>106889526</v>
+        <v>106963389</v>
       </c>
       <c r="B95" t="n">
         <v>96334</v>
@@ -11942,23 +11942,27 @@
           <t>5</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>A 58937 Näringe, Sm</t>
+          <t>A 58937, Näringe, Sm</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>568304.4112933173</v>
+        <v>568115.1972202838</v>
       </c>
       <c r="R95" t="n">
-        <v>6423233.714933631</v>
+        <v>6423506.543789248</v>
       </c>
       <c r="S95" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -11982,7 +11986,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
@@ -11992,7 +11996,7 @@
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
@@ -12013,22 +12017,22 @@
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Gunilla Nilsson, Ingvor Kasselstrand</t>
+          <t>Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>106963295</v>
+        <v>106963384</v>
       </c>
       <c r="B96" t="n">
-        <v>88471</v>
+        <v>96334</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -12041,34 +12045,35 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>59</v>
+        <v>220787</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Fransporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Anomoloma myceliosum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Peck) Niemelä &amp; K.H.Larsson</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
@@ -12076,10 +12081,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>568309.9574934442</v>
+        <v>568115.1520447005</v>
       </c>
       <c r="R96" t="n">
-        <v>6423095.775163164</v>
+        <v>6423509.19729699</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -12122,11 +12127,6 @@
       <c r="AB96" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>På undersidan av mycket murken granbit.</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -12396,7 +12396,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112426014</v>
+        <v>112426042</v>
       </c>
       <c r="B99" t="n">
         <v>96735</v>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -12448,10 +12448,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>568241</v>
+        <v>568242</v>
       </c>
       <c r="R99" t="n">
-        <v>6423187</v>
+        <v>6423125</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -12511,7 +12511,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112426042</v>
+        <v>112426014</v>
       </c>
       <c r="B100" t="n">
         <v>96735</v>
@@ -12546,7 +12546,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -12563,10 +12563,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>568242</v>
+        <v>568241</v>
       </c>
       <c r="R100" t="n">
-        <v>6423125</v>
+        <v>6423187</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
